--- a/Mujeres.xlsx
+++ b/Mujeres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="5006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5008" uniqueCount="5007">
   <si>
     <t xml:space="preserve">Abagael</t>
   </si>
@@ -15038,6 +15038,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sirenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katiuska</t>
   </si>
 </sst>
 </file>
@@ -15168,13 +15171,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5007"/>
+  <dimension ref="A1:A5008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4987" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4998" activeCellId="0" sqref="E4998"/>
+      <selection pane="topLeft" activeCell="D4997" activeCellId="0" sqref="D4997"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -40209,6 +40212,11 @@
     <row r="5007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5007" s="3" t="s">
         <v>5005</v>
+      </c>
+    </row>
+    <row r="5008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5008" s="3" t="s">
+        <v>5006</v>
       </c>
     </row>
   </sheetData>
